--- a/result/NCDC_weather_data/stations_imputed/50727099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/50727099999.xlsx
@@ -581,7 +581,9 @@
       <c r="Q2" t="n">
         <v>0.001778</v>
       </c>
-      <c r="R2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>0.06452963276836159</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
